--- a/lab1_control.xlsx
+++ b/lab1_control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4FE5B2-73E0-490B-B14F-5DD8767A4A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EEF47C-51A5-4BFF-924E-7FAF4DFC8B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{44FA2008-30E8-4C3F-938C-CF22DD18E52B}"/>
   </bookViews>
@@ -36,12 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>pi/2</t>
+  </si>
+  <si>
+    <t>pi/4</t>
+  </si>
   <si>
     <t>Ke</t>
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Sin</t>
   </si>
   <si>
     <t>Eff</t>
@@ -93,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +118,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="4">
@@ -252,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -288,6 +305,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -627,15 +650,15 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -643,118 +666,130 @@
       <c r="F1" s="10"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B3" s="5">
+        <v>0.95564000000000004</v>
+      </c>
+      <c r="C3" s="5">
+        <v>9.1687999999999994E-5</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.22E-4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3.6232E-2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>7.0297999999999998</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0.99829999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B4" s="5">
+        <v>0.97009999999999996</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.4170000000000001E-5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8.7402000000000001E-5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.1669999999999999E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>9.4731000000000005</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.99963000000000002</v>
-      </c>
-      <c r="C3" s="5">
-        <v>6.279E-5</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1.1286E-3</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.99978999999999996</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3.2199999999999997E-5</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>6.7500000000000004E-4</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
       <c r="B5" s="5">
-        <v>0.97672999999999999</v>
+        <v>0.96272000000000002</v>
       </c>
       <c r="C5" s="5">
-        <v>6.5199999999999999E-5</v>
+        <v>2.3181999999999999E-5</v>
       </c>
       <c r="D5" s="5">
-        <v>0</v>
+        <v>1.56E-4</v>
       </c>
       <c r="E5" s="5">
-        <v>1.7568E-3</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4715000000000001E-2</v>
+      </c>
+      <c r="F5" s="14">
+        <v>15.051299999999999</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.99239999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5">
         <v>0.98821000000000003</v>
@@ -769,9 +804,9 @@
         <v>4.9912999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5">
         <v>0.99543000000000004</v>
@@ -786,9 +821,9 @@
         <v>4.5414000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5">
         <v>0.91808999999999996</v>
@@ -803,38 +838,38 @@
         <v>4.4568000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -851,7 +886,7 @@
         <v>4.0971399999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -868,7 +903,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -885,40 +920,40 @@
         <v>4.19E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1">
       <c r="A19" s="1"/>
       <c r="B19" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.75" thickBot="1">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" ht="27" thickBot="1">
       <c r="A21" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B21" s="5">
         <v>0.99743999999999999</v>
@@ -933,9 +968,9 @@
         <v>4.7652E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1">
       <c r="A22" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B22" s="5">
         <v>0.99999700000000002</v>
@@ -950,9 +985,9 @@
         <v>4.7675000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1">
       <c r="A23" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B23" s="5">
         <v>0.98907999999999996</v>
@@ -967,38 +1002,38 @@
         <v>4.3054000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" thickBot="1">
       <c r="A25" s="1"/>
       <c r="B25" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1">
       <c r="A27" s="4">
         <v>0.5</v>
       </c>
@@ -1015,7 +1050,7 @@
         <v>4.7786000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -1032,7 +1067,7 @@
         <v>4.3926E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15.75" thickBot="1">
       <c r="A29" s="4">
         <v>1.5</v>
       </c>
@@ -1049,38 +1084,38 @@
         <v>4.8237000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1">
       <c r="A31" s="1"/>
       <c r="B31" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15.75" thickBot="1">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1">
       <c r="A33" s="4">
         <v>10</v>
       </c>
@@ -1097,7 +1132,7 @@
         <v>2.7723999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15.75" thickBot="1">
       <c r="A34" s="4">
         <v>20</v>
       </c>
@@ -1114,7 +1149,7 @@
         <v>3.2301999999999997E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15.75" thickBot="1">
       <c r="A35" s="4">
         <v>30</v>
       </c>
@@ -1444,7 +1479,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8347B06F-73AF-4F44-9CEC-B728509FFC15}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{300C02D5-B5EA-4EC3-854D-4FCC46CA03FD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>

--- a/lab1_control.xlsx
+++ b/lab1_control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EEF47C-51A5-4BFF-924E-7FAF4DFC8B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5781BCBA-1D87-4ADB-8550-31CAEA239E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{44FA2008-30E8-4C3F-938C-CF22DD18E52B}"/>
   </bookViews>
@@ -36,24 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
-  <si>
-    <t>pi</t>
-  </si>
-  <si>
-    <t>pi/2</t>
-  </si>
-  <si>
-    <t>pi/4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>Ke</t>
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>Sin</t>
   </si>
   <si>
     <t>Eff</t>
@@ -105,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,11 +106,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="4">
@@ -269,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -305,12 +288,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -653,12 +630,12 @@
       <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="9" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -666,130 +643,118 @@
       <c r="F1" s="10"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G2" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.4500999999999998E-4</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3.18E-5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3.3227E-2</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.95564000000000004</v>
-      </c>
-      <c r="C3" s="5">
-        <v>9.1687999999999994E-5</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1.22E-4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3.6232E-2</v>
-      </c>
-      <c r="F3" s="13">
-        <v>7.0297999999999998</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0.99829999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="B4" s="5">
-        <v>0.97009999999999996</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2.4170000000000001E-5</v>
-      </c>
-      <c r="D4" s="5">
-        <v>8.7402000000000001E-5</v>
+        <v>0.99848999999999999</v>
+      </c>
+      <c r="C4" s="8">
+        <v>7.2200000000000007E-5</v>
+      </c>
+      <c r="D4" s="8">
+        <v>4.4900000000000001E-7</v>
       </c>
       <c r="E4" s="5">
-        <v>4.1669999999999999E-2</v>
-      </c>
-      <c r="F4" s="13">
-        <v>9.4731000000000005</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0.99690000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
+        <v>3.6343E-2</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>30</v>
       </c>
       <c r="B5" s="5">
-        <v>0.96272000000000002</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2.3181999999999999E-5</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1.56E-4</v>
+        <v>0.96906999999999999</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.95E-5</v>
+      </c>
+      <c r="D5" s="8">
+        <v>6.5300000000000002E-5</v>
       </c>
       <c r="E5" s="5">
-        <v>2.4715000000000001E-2</v>
-      </c>
-      <c r="F5" s="14">
-        <v>15.051299999999999</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0.99239999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1">
+        <v>4.2462E-2</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" s="5">
         <v>0.98821000000000003</v>
@@ -804,9 +769,9 @@
         <v>4.9912999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10" s="5">
         <v>0.99543000000000004</v>
@@ -821,9 +786,9 @@
         <v>4.5414000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11" s="5">
         <v>0.91808999999999996</v>
@@ -838,38 +803,38 @@
         <v>4.4568000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -886,7 +851,7 @@
         <v>4.0971399999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -903,7 +868,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -920,40 +885,40 @@
         <v>4.19E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="27" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B21" s="5">
         <v>0.99743999999999999</v>
@@ -968,9 +933,9 @@
         <v>4.7652E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B22" s="5">
         <v>0.99999700000000002</v>
@@ -985,9 +950,9 @@
         <v>4.7675000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B23" s="5">
         <v>0.98907999999999996</v>
@@ -1002,38 +967,38 @@
         <v>4.3054000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1">
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>0.5</v>
       </c>
@@ -1050,7 +1015,7 @@
         <v>4.7786000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -1067,7 +1032,7 @@
         <v>4.3926E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1">
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>1.5</v>
       </c>
@@ -1084,38 +1049,38 @@
         <v>4.8237000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1">
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>10</v>
       </c>
@@ -1132,7 +1097,7 @@
         <v>2.7723999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1">
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>20</v>
       </c>
@@ -1149,7 +1114,7 @@
         <v>3.2301999999999997E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1">
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>30</v>
       </c>
@@ -1479,7 +1444,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{300C02D5-B5EA-4EC3-854D-4FCC46CA03FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3C47B62-73BD-48F1-83A6-659F43DBC001}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>

--- a/lab1_control.xlsx
+++ b/lab1_control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5781BCBA-1D87-4ADB-8550-31CAEA239E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6DD1CD-1EC2-41C5-A50B-E89818A0493B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{44FA2008-30E8-4C3F-938C-CF22DD18E52B}"/>
   </bookViews>
@@ -36,7 +36,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>pi/2</t>
+  </si>
+  <si>
+    <t>pi/4</t>
+  </si>
   <si>
     <t>Ke</t>
   </si>
@@ -44,6 +53,9 @@
     <t>B</t>
   </si>
   <si>
+    <t>Sin</t>
+  </si>
+  <si>
     <t>Eff</t>
   </si>
   <si>
@@ -77,9 +89,6 @@
     <t>4 8 12</t>
   </si>
   <si>
-    <t>Stair step ( vary period )</t>
-  </si>
-  <si>
     <t>Chirp</t>
   </si>
   <si>
@@ -87,13 +96,16 @@
   </si>
   <si>
     <t>R square</t>
+  </si>
+  <si>
+    <t>1 2 3 4 5 6 7 8 9 10 11 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +118,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="4">
@@ -252,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -288,6 +305,24 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -627,15 +662,15 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -643,502 +678,572 @@
       <c r="F1" s="10"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B3" s="5">
+        <v>0.95564000000000004</v>
+      </c>
+      <c r="C3" s="5">
+        <v>9.1687999999999994E-5</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.22E-4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3.6232E-2</v>
+      </c>
+      <c r="F3" s="15">
+        <v>7.0297999999999998</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0.99829999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B4" s="5">
+        <v>0.97009999999999996</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.4170000000000001E-5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8.7402000000000001E-5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.1669999999999999E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>9.4731000000000005</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.80720000000000003</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3.4500999999999998E-4</v>
-      </c>
-      <c r="D3" s="8">
-        <v>3.18E-5</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3.3227E-2</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.99848999999999999</v>
-      </c>
-      <c r="C4" s="8">
-        <v>7.2200000000000007E-5</v>
-      </c>
-      <c r="D4" s="8">
-        <v>4.4900000000000001E-7</v>
-      </c>
-      <c r="E4" s="5">
-        <v>3.6343E-2</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>30</v>
-      </c>
       <c r="B5" s="5">
-        <v>0.96906999999999999</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1.95E-5</v>
-      </c>
-      <c r="D5" s="8">
-        <v>6.5300000000000002E-5</v>
+        <v>0.96272000000000002</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.3181999999999999E-5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.56E-4</v>
       </c>
       <c r="E5" s="5">
-        <v>4.2462E-2</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4715000000000001E-2</v>
+      </c>
+      <c r="F5" s="14">
+        <v>15.051299999999999</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.99239999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5">
-        <v>0.98821000000000003</v>
+        <v>0.98309999999999997</v>
       </c>
       <c r="C9" s="5">
-        <v>1.1362999999999999E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="D9" s="5">
-        <v>8.1899999999999995E-6</v>
+        <v>4.5500000000000001E-5</v>
       </c>
       <c r="E9" s="5">
-        <v>4.9912999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.6933000000000002E-2</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5">
-        <v>0.99543000000000004</v>
+        <v>0.99550000000000005</v>
       </c>
       <c r="C10" s="5">
-        <v>1.2249E-4</v>
+        <v>1.15E-4</v>
       </c>
       <c r="D10" s="5">
-        <v>4.6279999999999997E-5</v>
+        <v>4.617E-5</v>
       </c>
       <c r="E10" s="5">
-        <v>4.5414000000000003E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.5150000000000003E-2</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5">
-        <v>0.91808999999999996</v>
+        <v>0.91693999999999998</v>
       </c>
       <c r="C11" s="5">
-        <v>1.4137000000000001E-4</v>
+        <v>1.3242000000000001E-4</v>
       </c>
       <c r="D11" s="5">
-        <v>4.6360000000000003E-5</v>
+        <v>4.5170000000000003E-5</v>
       </c>
       <c r="E11" s="5">
-        <v>4.4568000000000003E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.4372000000000002E-2</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1">
       <c r="A15" s="4">
         <v>1</v>
       </c>
       <c r="B15" s="5">
-        <v>0.82779999999999998</v>
+        <v>0.99963000000000002</v>
       </c>
       <c r="C15" s="5">
-        <v>2.9789999999999998E-4</v>
+        <v>6.279E-5</v>
       </c>
       <c r="D15" s="5">
-        <v>4.8099999999999997E-5</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5">
-        <v>4.0971399999999998E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.1286E-3</v>
+      </c>
+      <c r="F15" s="14">
+        <v>7.5307000000000004</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.9899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
       <c r="A16" s="4">
         <v>2</v>
       </c>
       <c r="B16" s="5">
-        <v>0.81735599999999997</v>
+        <v>0.99978999999999996</v>
       </c>
       <c r="C16" s="5">
-        <v>2.1210000000000001E-4</v>
+        <v>3.2199999999999997E-5</v>
       </c>
       <c r="D16" s="5">
-        <v>5.4200000000000003E-5</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.7500000000000004E-4</v>
+      </c>
+      <c r="F16" s="15">
+        <v>13.639799999999999</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.96850000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1">
       <c r="A17" s="4">
         <v>3</v>
       </c>
       <c r="B17" s="5">
-        <v>0.88019999999999998</v>
+        <v>0.97672999999999999</v>
       </c>
       <c r="C17" s="5">
-        <v>9.7600000000000001E-5</v>
+        <v>6.5199999999999999E-5</v>
       </c>
       <c r="D17" s="5">
-        <v>4.6900000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="E17" s="5">
-        <v>4.19E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.7568E-3</v>
+      </c>
+      <c r="F17" s="15">
+        <v>9.2055000000000007</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.98509999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="1"/>
       <c r="B19" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="27" thickBot="1">
       <c r="A21" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B21" s="5">
-        <v>0.99743999999999999</v>
+        <v>0.99756999999999996</v>
       </c>
       <c r="C21" s="5">
-        <v>1.1254E-4</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1.26E-5</v>
+        <v>1.0561E-4</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1.2907E-5</v>
       </c>
       <c r="E21" s="5">
-        <v>4.7652E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.7442999999999999E-2</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1">
       <c r="A22" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B22" s="5">
-        <v>0.99999700000000002</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1.17E-5</v>
-      </c>
-      <c r="D22" s="8">
-        <v>2.6699999999999998E-5</v>
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1.3691E-5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2.9733000000000001E-5</v>
       </c>
       <c r="E22" s="5">
-        <v>4.7675000000000002E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.7128999999999997E-2</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1">
       <c r="A23" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B23" s="5">
-        <v>0.98907999999999996</v>
-      </c>
-      <c r="C23" s="8">
-        <v>9.7999999999999993E-6</v>
-      </c>
-      <c r="D23" s="8">
-        <v>9.1700000000000006E-5</v>
+        <v>0.98397000000000001</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1.1790000000000001E-5</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1.4857E-5</v>
       </c>
       <c r="E23" s="5">
-        <v>4.3054000000000002E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.8146000000000001E-2</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="39.75" thickBot="1">
+      <c r="A24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.98311000000000004</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3.8423000000000001E-5</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3.2194999999999998E-6</v>
+      </c>
+      <c r="E24" s="5">
+        <v>5.0840000000000003E-2</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.99863000000000002</v>
-      </c>
-      <c r="C27" s="5">
-        <v>3.1069999999999999E-5</v>
-      </c>
-      <c r="D27" s="5">
-        <v>2.6489999999999999E-5</v>
-      </c>
-      <c r="E27" s="5">
-        <v>4.7786000000000002E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>1</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.99733000000000005</v>
-      </c>
-      <c r="C28" s="5">
-        <v>9.3900000000000006E-5</v>
-      </c>
-      <c r="D28" s="5">
-        <v>5.7420000000000003E-5</v>
-      </c>
-      <c r="E28" s="5">
-        <v>4.3926E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.99777300000000002</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1.0420999999999999E-4</v>
-      </c>
-      <c r="D29" s="5">
-        <v>3.8000000000000001E-7</v>
-      </c>
-      <c r="E29" s="5">
-        <v>4.8237000000000002E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="4"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1">
       <c r="A31" s="1"/>
       <c r="B31" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1">
       <c r="A33" s="4">
         <v>10</v>
       </c>
       <c r="B33" s="5">
-        <v>0.80618000000000001</v>
+        <v>0.80720000000000003</v>
       </c>
       <c r="C33" s="5">
-        <v>3.1517999999999997E-4</v>
+        <v>3.4500999999999998E-4</v>
       </c>
       <c r="D33" s="8">
-        <v>4.6999999999999997E-5</v>
+        <v>3.18E-5</v>
       </c>
       <c r="E33" s="5">
-        <v>2.7723999999999999E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.3227E-2</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1">
       <c r="A34" s="4">
         <v>20</v>
       </c>
       <c r="B34" s="5">
-        <v>0.99758999999999998</v>
+        <v>0.99848999999999999</v>
       </c>
       <c r="C34" s="8">
-        <v>6.6500000000000004E-5</v>
+        <v>7.2200000000000007E-5</v>
       </c>
       <c r="D34" s="8">
-        <v>4.6400000000000003E-5</v>
+        <v>4.4900000000000001E-7</v>
       </c>
       <c r="E34" s="5">
-        <v>3.2301999999999997E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.6343E-2</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1">
       <c r="A35" s="4">
         <v>30</v>
       </c>
       <c r="B35" s="5">
-        <v>0.92169000000000001</v>
+        <v>0.96906999999999999</v>
       </c>
       <c r="C35" s="8">
-        <v>2.2900000000000001E-5</v>
+        <v>1.95E-5</v>
       </c>
       <c r="D35" s="8">
-        <v>7.7900000000000003E-8</v>
+        <v>6.5300000000000002E-5</v>
       </c>
       <c r="E35" s="5">
-        <v>4.8576000000000001E-2</v>
-      </c>
+        <v>4.2462E-2</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B31:E31"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1444,7 +1549,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3C47B62-73BD-48F1-83A6-659F43DBC001}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E83E8B5B-0587-4011-B5EB-3F001E4D30CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>
